--- a/QR_codes/Vetscan_QR_label_Docs/QR_code_results_chart.xlsx
+++ b/QR_codes/Vetscan_QR_label_Docs/QR_code_results_chart.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GRAHAMB\Documents\Camera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Zoetis\QR_codes\Vetscan_QR_label_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ACCED7-90EC-4A6A-9061-69F9CEA9D5EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1B2472-AFA3-4BC6-A5B6-3264777D65CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manual" sheetId="1" r:id="rId1"/>
     <sheet name="auto.vs.fixed" sheetId="2" r:id="rId2"/>
+    <sheet name="auto.vs.fixed.rotated" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <r>
       <t>10</t>
@@ -85,6 +86,36 @@
   </si>
   <si>
     <t>autofocus averages</t>
+  </si>
+  <si>
+    <t>mm x mm</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>20x20</t>
+  </si>
+  <si>
+    <t>50x50</t>
+  </si>
+  <si>
+    <t>10x10 Bruce</t>
+  </si>
+  <si>
+    <t>10x10 Brian</t>
+  </si>
+  <si>
+    <t>20x20 Bruce</t>
+  </si>
+  <si>
+    <t>20x20 Brian</t>
+  </si>
+  <si>
+    <t>50x50 Bruce</t>
+  </si>
+  <si>
+    <t>50x50 Brain</t>
   </si>
 </sst>
 </file>
@@ -215,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -251,6 +282,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,9 +1053,35 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'auto.vs.fixed'!$F$3:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10x10 Bruce</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10x10 Brian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20x20 Bruce</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20x20 Brian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50x50 Bruce</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50x50 Brain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'auto.vs.fixed'!$F$3:$F$8</c:f>
+              <c:f>'auto.vs.fixed'!$G$3:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1054,7 +1118,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'auto.vs.fixed'!$G$2</c:f>
+              <c:f>'auto.vs.fixed'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1075,9 +1139,35 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'auto.vs.fixed'!$F$3:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10x10 Bruce</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10x10 Brian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20x20 Bruce</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20x20 Brian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50x50 Bruce</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50x50 Brain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'auto.vs.fixed'!$G$3:$G$8</c:f>
+              <c:f>'auto.vs.fixed'!$H$3:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1128,6 +1218,382 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528158664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528158664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528156040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Blue:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> autofocus  Orange: fixed focus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'auto.vs.fixed.rotated'!$F$3:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10x10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20x20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'auto.vs.fixed.rotated'!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.4899999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1130-44CA-8D5A-CC937C23FAB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'auto.vs.fixed.rotated'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixed focus averages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'auto.vs.fixed.rotated'!$F$3:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10x10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20x20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'auto.vs.fixed.rotated'!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.085000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1130-44CA-8D5A-CC937C23FAB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="528156040"/>
+        <c:axId val="528158664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528156040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1359,6 +1825,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1876,6 +2382,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2436,13 +3458,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
@@ -2457,6 +3479,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405B30BF-2D55-4C78-856D-999FB6752620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2776,12 +3841,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +3857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2806,7 +3871,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2820,7 +3885,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2834,7 +3899,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2848,7 +3913,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -2862,7 +3927,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -2876,8 +3941,8 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="7">
         <v>0</v>
       </c>
@@ -2888,7 +3953,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5">
         <v>450</v>
       </c>
@@ -2899,7 +3964,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -2910,7 +3975,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5">
         <v>0</v>
       </c>
@@ -2921,7 +3986,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>152</v>
       </c>
@@ -2932,7 +3997,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9">
         <v>122</v>
       </c>
@@ -2952,126 +4017,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A07BF2-8A8D-4E54-8745-2251B92405B3}">
-  <dimension ref="B2:G29"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="11" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="11" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9">
         <v>4.87</v>
       </c>
       <c r="D3" s="9">
         <v>2.58</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10">
         <f>AVERAGE(B3:B5)</f>
         <v>7.38</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <f>AVERAGE(D3:D5)</f>
         <v>2.69</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5">
         <v>7.63</v>
       </c>
       <c r="D4" s="5">
         <v>2.35</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="10">
         <f>AVERAGE(B7:B9)</f>
         <v>5.8633333333333333</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f>AVERAGE(D7:D9)</f>
         <v>3.7399999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5">
         <v>9.64</v>
       </c>
       <c r="D5" s="5">
         <v>3.14</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="10">
         <f>AVERAGE(B11:B14)</f>
         <v>3.69</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <f>AVERAGE(D11:D14)</f>
         <v>3.0300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="10">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10">
         <f>AVERAGE(B16:B19)</f>
         <v>6.2675000000000001</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <f>AVERAGE(D16:D19)</f>
         <v>2.6375000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5">
         <v>5.71</v>
       </c>
       <c r="D7" s="5">
         <v>2.63</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10">
         <f>AVERAGE(B21:B24)</f>
         <v>14.52</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <f>AVERAGE(D21:D24)</f>
         <v>7.23</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <v>6.05</v>
       </c>
       <c r="D8" s="5">
         <v>3.12</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10">
         <f>AVERAGE(B26:B29)</f>
         <v>4.33</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f>AVERAGE(D26:D29)</f>
         <v>6.51</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5">
         <v>5.83</v>
       </c>
@@ -3079,11 +4166,11 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5">
         <v>4.13</v>
       </c>
@@ -3091,7 +4178,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="5">
         <v>3.17</v>
       </c>
@@ -3099,7 +4186,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="5">
         <v>3.88</v>
       </c>
@@ -3107,7 +4194,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="5">
         <v>3.58</v>
       </c>
@@ -3115,11 +4202,11 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>4.26</v>
       </c>
@@ -3127,7 +4214,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5">
         <v>6.37</v>
       </c>
@@ -3135,7 +4222,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>9.4600000000000009</v>
       </c>
@@ -3143,7 +4230,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
         <v>4.9800000000000004</v>
       </c>
@@ -3151,11 +4238,11 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5">
         <v>8.34</v>
       </c>
@@ -3163,7 +4250,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5">
         <v>15.98</v>
       </c>
@@ -3171,7 +4258,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5">
         <v>18.03</v>
       </c>
@@ -3179,7 +4266,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5">
         <v>15.73</v>
       </c>
@@ -3187,11 +4274,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5">
         <v>4.08</v>
       </c>
@@ -3199,7 +4286,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5">
         <v>4.37</v>
       </c>
@@ -3207,7 +4294,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5">
         <v>3.85</v>
       </c>
@@ -3215,13 +4302,278 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="5">
         <v>5.0199999999999996</v>
       </c>
       <c r="D29" s="5">
         <v>9.7200000000000006</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0ED1C1-28BD-4D3F-A077-8CF8F8E1B7B9}">
+  <dimension ref="B2:H29"/>
+  <sheetViews>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" s="11" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="9">
+        <v>6.53</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2.33</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="10">
+        <f>AVERAGE(B3:B5)</f>
+        <v>6.4899999999999993</v>
+      </c>
+      <c r="H3" s="10">
+        <f>AVERAGE(D3:D5)</f>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="5">
+        <v>5.05</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3.52</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10">
+        <f>AVERAGE(B7:B10)</f>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="H4" s="10">
+        <f>AVERAGE(D7:D10)</f>
+        <v>3.2475000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="5">
+        <v>7.89</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10">
+        <f>AVERAGE(B12:B14)</f>
+        <v>7.78</v>
+      </c>
+      <c r="H5" s="10">
+        <f>AVERAGE(D12:D15)</f>
+        <v>11.085000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="5">
+        <v>3.73</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="5">
+        <v>11.77</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3.72</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="5">
+        <v>8.93</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.69</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="5">
+        <v>8.69</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4.34</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="5">
+        <v>5.16</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6.17</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="5">
+        <v>12.41</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7.22</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13">
+        <v>5.77</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="5">
+        <v>13.96</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QR_codes/Vetscan_QR_label_Docs/QR_code_results_chart.xlsx
+++ b/QR_codes/Vetscan_QR_label_Docs/QR_code_results_chart.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Zoetis\QR_codes\Vetscan_QR_label_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1B2472-AFA3-4BC6-A5B6-3264777D65CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA415172-2BD1-499A-A9F5-77744BA9B1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manual" sheetId="1" r:id="rId1"/>
     <sheet name="auto.vs.fixed" sheetId="2" r:id="rId2"/>
     <sheet name="auto.vs.fixed.rotated" sheetId="3" r:id="rId3"/>
+    <sheet name="diffuser#2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <r>
       <t>10</t>
@@ -117,6 +118,24 @@
   <si>
     <t>50x50 Brain</t>
   </si>
+  <si>
+    <t>QR Version</t>
+  </si>
+  <si>
+    <t>10 x 10</t>
+  </si>
+  <si>
+    <t>20 x 20</t>
+  </si>
+  <si>
+    <t>50 x 50</t>
+  </si>
+  <si>
+    <t>diffuser#1 autofocus</t>
+  </si>
+  <si>
+    <t>diffuser#2 autofocus</t>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +176,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +189,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -242,11 +267,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -289,6 +329,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1745,6 +1794,384 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Blue:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> diffuser#1  Orange: diffuser#2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>diffuser#1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'diffuser#2'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6CAB-48CA-B1C8-909A60A33946}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>diffuser#2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'diffuser#2'!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6CAB-48CA-B1C8-909A60A33946}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="528156040"/>
+        <c:axId val="528158664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528156040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528158664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528158664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528156040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1865,6 +2292,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2898,6 +3365,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3516,6 +4499,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405B30BF-2D55-4C78-856D-999FB6752620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF679B7-2DE0-452F-9CA2-5B84B0621465}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3841,12 +4867,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.81640625" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3857,7 +4883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -3871,7 +4897,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3885,7 +4911,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -3899,7 +4925,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3913,7 +4939,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3927,7 +4953,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -3941,8 +4967,8 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>0</v>
       </c>
@@ -3953,7 +4979,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>450</v>
       </c>
@@ -3964,7 +4990,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -3975,7 +5001,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>0</v>
       </c>
@@ -3986,7 +5012,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>152</v>
       </c>
@@ -3997,7 +5023,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>122</v>
       </c>
@@ -4019,19 +5045,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A07BF2-8A8D-4E54-8745-2251B92405B3}">
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="11" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" s="11" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
@@ -4048,7 +5074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9">
         <v>4.87</v>
       </c>
@@ -4067,7 +5093,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>7.63</v>
       </c>
@@ -4086,7 +5112,7 @@
         <v>3.7399999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>9.64</v>
       </c>
@@ -4105,7 +5131,7 @@
         <v>3.0300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
       <c r="F6" t="s">
@@ -4120,7 +5146,7 @@
         <v>2.6375000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>5.71</v>
       </c>
@@ -4139,7 +5165,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>6.05</v>
       </c>
@@ -4158,7 +5184,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>5.83</v>
       </c>
@@ -4166,11 +5192,11 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>4.13</v>
       </c>
@@ -4178,7 +5204,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>3.17</v>
       </c>
@@ -4186,7 +5212,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>3.88</v>
       </c>
@@ -4194,7 +5220,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>3.58</v>
       </c>
@@ -4202,11 +5228,11 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>4.26</v>
       </c>
@@ -4214,7 +5240,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>6.37</v>
       </c>
@@ -4222,7 +5248,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>9.4600000000000009</v>
       </c>
@@ -4230,7 +5256,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>4.9800000000000004</v>
       </c>
@@ -4238,11 +5264,11 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>8.34</v>
       </c>
@@ -4250,7 +5276,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>15.98</v>
       </c>
@@ -4258,7 +5284,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>18.03</v>
       </c>
@@ -4266,7 +5292,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>15.73</v>
       </c>
@@ -4274,11 +5300,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>4.08</v>
       </c>
@@ -4286,7 +5312,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>4.37</v>
       </c>
@@ -4294,7 +5320,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>3.85</v>
       </c>
@@ -4302,7 +5328,7 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>5.0199999999999996</v>
       </c>
@@ -4322,17 +5348,17 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="11" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" s="11" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
@@ -4350,7 +5376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9">
         <v>6.53</v>
       </c>
@@ -4370,7 +5396,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>5.05</v>
       </c>
@@ -4390,7 +5416,7 @@
         <v>3.2475000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>7.89</v>
       </c>
@@ -4410,12 +5436,12 @@
         <v>11.085000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>3.73</v>
       </c>
@@ -4424,7 +5450,7 @@
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>11.77</v>
       </c>
@@ -4433,7 +5459,7 @@
       </c>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>8.93</v>
       </c>
@@ -4442,7 +5468,7 @@
       </c>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>8.69</v>
       </c>
@@ -4451,12 +5477,12 @@
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>5.16</v>
       </c>
@@ -4465,7 +5491,7 @@
       </c>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>12.41</v>
       </c>
@@ -4474,7 +5500,7 @@
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>5.77</v>
       </c>
@@ -4483,7 +5509,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="5">
@@ -4491,89 +5517,285 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1856A8E-6C1C-4ADD-B10A-8037C48A3222}">
+  <dimension ref="A2:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="D2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="18">
+        <v>6.53</v>
+      </c>
+      <c r="D4" s="18">
+        <v>10.79</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="18">
+        <v>5.05</v>
+      </c>
+      <c r="D5" s="18">
+        <v>11.89</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="18">
+        <v>7.89</v>
+      </c>
+      <c r="D6" s="18">
+        <v>8.48</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>14</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="18">
+        <v>3.73</v>
+      </c>
+      <c r="D7" s="18">
+        <v>5.67</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>15</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="18">
+        <v>11.77</v>
+      </c>
+      <c r="D8" s="18">
+        <v>5.73</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>16</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="18">
+        <v>8.93</v>
+      </c>
+      <c r="D9" s="18">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>17</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="18">
+        <v>8.69</v>
+      </c>
+      <c r="D10" s="18">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>26</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="18">
+        <v>5.16</v>
+      </c>
+      <c r="D11" s="18">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>27</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="18">
+        <v>12.41</v>
+      </c>
+      <c r="D12" s="18">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>29</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="18">
+        <v>5.77</v>
+      </c>
+      <c r="D13" s="18">
+        <v>3.59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QR_codes/Vetscan_QR_label_Docs/QR_code_results_chart.xlsx
+++ b/QR_codes/Vetscan_QR_label_Docs/QR_code_results_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Zoetis\QR_codes\Vetscan_QR_label_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA415172-2BD1-499A-A9F5-77744BA9B1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C874DCBE-0620-4152-B09C-CCD38C28AA0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1836,6 +1836,24 @@
               <a:t> diffuser#1  Orange: diffuser#2</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Blue dots: trend diffuser#1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Orange dots: trend diffuse#2</a:t>
+            </a:r>
+          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -1891,6 +1909,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>'diffuser#2'!$C$4:$C$13</c:f>
@@ -1955,6 +1987,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>'diffuser#2'!$D$4:$D$13</c:f>
@@ -4526,15 +4572,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5613,7 +5659,7 @@
   <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/QR_codes/Vetscan_QR_label_Docs/QR_code_results_chart.xlsx
+++ b/QR_codes/Vetscan_QR_label_Docs/QR_code_results_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Zoetis\QR_codes\Vetscan_QR_label_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C874DCBE-0620-4152-B09C-CCD38C28AA0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DCDB25-4B04-48B8-81A0-7544E411D393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-516" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manual" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <r>
       <t>10</t>
@@ -176,7 +176,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +195,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -282,11 +288,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -332,10 +351,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1851,7 +1882,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Orange dots: trend diffuse#2</a:t>
+              <a:t>Orange dots: trend diffuser#2 (less glare)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1923,41 +1954,122 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'diffuser#2'!$A$4:$B$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 x 10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10 x 10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10 x 10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20 x 20</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>20 x 20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20 x 20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>20 x 20</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>50 x 50</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>50 x 50</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>50 x 50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>50 x 50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'diffuser#2'!$C$4:$C$13</c:f>
+              <c:f>'diffuser#2'!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.53</c:v>
+                  <c:v>4.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.05</c:v>
+                  <c:v>7.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.89</c:v>
+                  <c:v>9.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.73</c:v>
+                  <c:v>4.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.77</c:v>
+                  <c:v>3.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.93</c:v>
+                  <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.77</c:v>
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,40 +2113,121 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'diffuser#2'!$A$4:$B$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 x 10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10 x 10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10 x 10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20 x 20</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>20 x 20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20 x 20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>20 x 20</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>50 x 50</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>50 x 50</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>50 x 50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>50 x 50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'diffuser#2'!$D$4:$D$13</c:f>
+              <c:f>'diffuser#2'!$D$4:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10.79</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8.48</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.67</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.73</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>8.51</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.3099999999999996</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.64</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.51</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3.59</c:v>
                 </c:pt>
               </c:numCache>
@@ -2143,7 +2336,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4571,8 +4764,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -5092,7 +5285,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5394,7 +5587,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5656,10 +5849,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1856A8E-6C1C-4ADD-B10A-8037C48A3222}">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5678,168 +5871,182 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>5</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="18">
-        <v>6.53</v>
+      <c r="C4" s="17">
+        <v>4.87</v>
       </c>
       <c r="D4" s="18">
-        <v>10.79</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>6</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18">
-        <v>5.05</v>
-      </c>
-      <c r="D5" s="18">
-        <v>11.89</v>
+      <c r="C5" s="17">
+        <v>7.63</v>
+      </c>
+      <c r="D5" s="19">
+        <v>4.53</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>7</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="18">
-        <v>7.89</v>
-      </c>
-      <c r="D6" s="18">
-        <v>8.48</v>
+      <c r="C6" s="17">
+        <v>9.64</v>
+      </c>
+      <c r="D6" s="19">
+        <v>10.79</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>14</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="18">
-        <v>3.73</v>
-      </c>
-      <c r="D7" s="18">
-        <v>5.67</v>
+      <c r="C7" s="17">
+        <v>4.13</v>
+      </c>
+      <c r="D7" s="19">
+        <v>8.48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>15</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="18">
-        <v>11.77</v>
-      </c>
-      <c r="D8" s="18">
-        <v>5.73</v>
+      <c r="C8" s="17">
+        <v>3.17</v>
+      </c>
+      <c r="D8" s="19">
+        <v>5.67</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>16</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="18">
-        <v>8.93</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="C9" s="17">
+        <v>3.88</v>
+      </c>
+      <c r="D9" s="19">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>17</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="17">
+        <v>3.58</v>
+      </c>
+      <c r="D10" s="19">
         <v>8.51</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>15</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="19">
+        <v>6.09</v>
+      </c>
+      <c r="D11" s="19">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>16</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="19">
+        <v>6.74</v>
+      </c>
+      <c r="D12" s="19">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>17</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="18">
-        <v>8.69</v>
-      </c>
-      <c r="D10" s="18">
-        <v>4.3099999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C13" s="19">
+        <v>7.09</v>
+      </c>
+      <c r="D13" s="19">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>18</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="18">
-        <v>5.16</v>
-      </c>
-      <c r="D11" s="18">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>27</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="18">
-        <v>12.41</v>
-      </c>
-      <c r="D12" s="18">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>29</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="18">
-        <v>5.77</v>
-      </c>
-      <c r="D13" s="18">
+      <c r="C14" s="19">
+        <v>9</v>
+      </c>
+      <c r="D14" s="19">
         <v>3.59</v>
       </c>
     </row>

--- a/QR_codes/Vetscan_QR_label_Docs/QR_code_results_chart.xlsx
+++ b/QR_codes/Vetscan_QR_label_Docs/QR_code_results_chart.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Zoetis\QR_codes\Vetscan_QR_label_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DCDB25-4B04-48B8-81A0-7544E411D393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414B05DF-6414-451F-85D3-18F303150DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-516" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manual" sheetId="1" r:id="rId1"/>
     <sheet name="auto.vs.fixed" sheetId="2" r:id="rId2"/>
     <sheet name="auto.vs.fixed.rotated" sheetId="3" r:id="rId3"/>
-    <sheet name="diffuser#2" sheetId="4" r:id="rId4"/>
+    <sheet name="#1 vs. #2" sheetId="4" r:id="rId4"/>
+    <sheet name="Data" sheetId="6" r:id="rId5"/>
+    <sheet name="Compares" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <r>
       <t>10</t>
@@ -136,12 +138,51 @@
   <si>
     <t>diffuser#2 autofocus</t>
   </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Scan Times (sec)</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Autofocus</t>
+  </si>
+  <si>
+    <t>Diffuser</t>
+  </si>
+  <si>
+    <t>Size (mm x mm)</t>
+  </si>
+  <si>
+    <t>Diffusers</t>
+  </si>
+  <si>
+    <t>Avg (sec)</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +216,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -202,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -301,11 +363,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -368,6 +513,73 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1956,7 +2168,7 @@
           </c:trendline>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'diffuser#2'!$A$4:$B$14</c:f>
+              <c:f>'#1 vs. #2'!$A$4:$B$14</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="11"/>
                 <c:lvl>
@@ -2034,7 +2246,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'diffuser#2'!$C$4:$C$14</c:f>
+              <c:f>'#1 vs. #2'!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2115,7 +2327,7 @@
           </c:trendline>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'diffuser#2'!$A$4:$B$14</c:f>
+              <c:f>'#1 vs. #2'!$A$4:$B$14</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="11"/>
                 <c:lvl>
@@ -2193,7 +2405,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'diffuser#2'!$D$4:$D$14</c:f>
+              <c:f>'#1 vs. #2'!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2325,6 +2537,2437 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528156040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$5:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Data!$B$5:$C$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>29</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$5:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.5319999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.766000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6960000000000015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1620000000000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.414</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4028-45AA-9CB0-C158A4F894AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="528156040"/>
+        <c:axId val="528158664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528156040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528158664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528158664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528156040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$5:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Data!$B$25:$C$40</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>29</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$25:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.791999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5819999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E16F-460D-B088-E743601093C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="528156040"/>
+        <c:axId val="528158664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528156040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528158664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528158664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528156040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$5:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$I$45:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$45:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA38-469B-BEDF-FCD49578036C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="528156040"/>
+        <c:axId val="528158664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528156040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528158664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528158664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528156040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$5:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$I$65:$I$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$65:$I$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA18-4931-8A80-E79C5D0E8AA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="528156040"/>
+        <c:axId val="528158664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528156040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528158664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528158664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528156040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diffuser 1 Autofocus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Data!$B$5:$C$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>29</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$5:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.5319999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.766000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6960000000000015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1620000000000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.414</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2094-455B-A4CE-95E3E1A4128E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$22:$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diffuser 2 Autofocus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Data!$B$5:$C$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>29</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$25:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.791999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5819999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-2094-455B-A4CE-95E3E1A4128E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$42:$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diffuser 3 Autofocus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$45:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-2094-455B-A4CE-95E3E1A4128E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$62:$D$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diffuser 3 Fixed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$65:$I$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-2094-455B-A4CE-95E3E1A4128E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="528156040"/>
+        <c:axId val="528158664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528156040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528158664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528158664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2571,6 +5214,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4120,6 +6963,2586 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4803,6 +10226,206 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F7703F8-2594-4B8F-97C2-142F98CEC227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFBD316-8ADF-4AF0-A503-2D540F0B1226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C531A1-A222-4E15-8723-6CCAE168479D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA41E8C3-5E50-4684-B14A-9DA04E4F49BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF52EE21-2B7B-4E0E-B64C-ED893EA9609E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5285,7 +10908,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5851,8 +11474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1856A8E-6C1C-4ADD-B10A-8037C48A3222}">
   <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6055,4 +11678,1887 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BC779F-676B-4204-82B0-72F3F355D1F0}">
+  <dimension ref="B2:K81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="44">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>18.41</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5.38</v>
+      </c>
+      <c r="H5" s="5">
+        <v>6.25</v>
+      </c>
+      <c r="I5" s="33">
+        <f>AVERAGE(D5:H5)</f>
+        <v>6.5319999999999991</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="44">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>12.65</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.84</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G6" s="5">
+        <v>6.28</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2.42</v>
+      </c>
+      <c r="I6" s="33">
+        <f t="shared" ref="I6:I20" si="0">AVERAGE(D6:H6)</f>
+        <v>5.0519999999999996</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>7</v>
+      </c>
+      <c r="C7" s="44">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="E7" s="5">
+        <v>19.54</v>
+      </c>
+      <c r="F7" s="5">
+        <v>11.42</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.65</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3.38</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" si="0"/>
+        <v>7.8940000000000001</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" s="44">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>14</v>
+      </c>
+      <c r="C9" s="44">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9">
+        <v>10.73</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2.16</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1.53</v>
+      </c>
+      <c r="I9" s="33">
+        <f t="shared" si="0"/>
+        <v>3.7300000000000004</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>15</v>
+      </c>
+      <c r="C10" s="44">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5">
+        <v>15.13</v>
+      </c>
+      <c r="E10" s="5">
+        <v>16.22</v>
+      </c>
+      <c r="F10" s="5">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="G10" s="5">
+        <v>15.73</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="I10" s="33">
+        <f t="shared" si="0"/>
+        <v>11.766000000000002</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>16</v>
+      </c>
+      <c r="C11" s="44">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5">
+        <v>17.53</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7.69</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10.28</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="H11" s="5">
+        <v>6.79</v>
+      </c>
+      <c r="I11" s="33">
+        <f t="shared" si="0"/>
+        <v>8.93</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>17</v>
+      </c>
+      <c r="C12" s="44">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5.69</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2.09</v>
+      </c>
+      <c r="G12" s="5">
+        <v>11.15</v>
+      </c>
+      <c r="H12" s="5">
+        <v>8.31</v>
+      </c>
+      <c r="I12" s="33">
+        <f t="shared" si="0"/>
+        <v>8.6960000000000015</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>15</v>
+      </c>
+      <c r="C13" s="44">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>16</v>
+      </c>
+      <c r="C14" s="44">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>17</v>
+      </c>
+      <c r="C15" s="44">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>18</v>
+      </c>
+      <c r="C16" s="44">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9">
+        <v>26</v>
+      </c>
+      <c r="C17" s="44">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3.46</v>
+      </c>
+      <c r="F17" s="8">
+        <v>14.81</v>
+      </c>
+      <c r="G17" s="8">
+        <v>3.67</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2.92</v>
+      </c>
+      <c r="I17" s="33">
+        <f t="shared" si="0"/>
+        <v>5.1620000000000008</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>27</v>
+      </c>
+      <c r="C18" s="44">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4">
+        <v>7.92</v>
+      </c>
+      <c r="E18" s="4">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="F18" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="G18" s="4">
+        <v>16.77</v>
+      </c>
+      <c r="H18" s="4">
+        <v>9.26</v>
+      </c>
+      <c r="I18" s="33">
+        <f t="shared" si="0"/>
+        <v>12.414</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>28</v>
+      </c>
+      <c r="C19" s="44">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4">
+        <v>14.81</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10.92</v>
+      </c>
+      <c r="F19" s="4">
+        <v>18.14</v>
+      </c>
+      <c r="G19" s="4">
+        <v>27.58</v>
+      </c>
+      <c r="H19" s="4">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="I19" s="33">
+        <f t="shared" si="0"/>
+        <v>18.024000000000001</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>29</v>
+      </c>
+      <c r="C20" s="44">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4">
+        <v>15.64</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.66</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5.28</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I20" s="33">
+        <f t="shared" si="0"/>
+        <v>5.774</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="30">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>5</v>
+      </c>
+      <c r="C25" s="44">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4">
+        <v>6.41</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7.04</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="I25" s="34">
+        <f>AVERAGE(D25:H25)</f>
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>6</v>
+      </c>
+      <c r="C26" s="44">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3.93</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4.87</v>
+      </c>
+      <c r="I26" s="34">
+        <f t="shared" ref="I26:I36" si="1">AVERAGE(D26:H26)</f>
+        <v>4.532</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>7</v>
+      </c>
+      <c r="C27" s="44">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4">
+        <v>7.68</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="F27" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="G27" s="4">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="H27" s="4">
+        <v>11.16</v>
+      </c>
+      <c r="I27" s="34">
+        <f t="shared" si="1"/>
+        <v>10.791999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>8</v>
+      </c>
+      <c r="C28" s="44">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4">
+        <v>23.55</v>
+      </c>
+      <c r="E28" s="4">
+        <v>7.21</v>
+      </c>
+      <c r="F28" s="4">
+        <v>12.31</v>
+      </c>
+      <c r="G28" s="4">
+        <v>10.85</v>
+      </c>
+      <c r="H28" s="4">
+        <v>5.52</v>
+      </c>
+      <c r="I28" s="34">
+        <f t="shared" si="1"/>
+        <v>11.888</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>14</v>
+      </c>
+      <c r="C29" s="44">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4">
+        <v>11.05</v>
+      </c>
+      <c r="E29" s="4">
+        <v>12.32</v>
+      </c>
+      <c r="F29" s="4">
+        <v>10.52</v>
+      </c>
+      <c r="G29" s="4">
+        <v>4.46</v>
+      </c>
+      <c r="H29" s="4">
+        <v>4.07</v>
+      </c>
+      <c r="I29" s="34">
+        <f t="shared" si="1"/>
+        <v>8.484</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <v>15</v>
+      </c>
+      <c r="C30" s="44">
+        <v>20</v>
+      </c>
+      <c r="D30" s="4">
+        <v>6.04</v>
+      </c>
+      <c r="E30" s="4">
+        <v>6.33</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5.35</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4.91</v>
+      </c>
+      <c r="H30" s="4">
+        <v>5.73</v>
+      </c>
+      <c r="I30" s="34">
+        <f t="shared" si="1"/>
+        <v>5.6719999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
+        <v>16</v>
+      </c>
+      <c r="C31" s="44">
+        <v>20</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4.53</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="F31" s="4">
+        <v>10.35</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="H31" s="4">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I31" s="34">
+        <f t="shared" si="1"/>
+        <v>5.7279999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
+        <v>17</v>
+      </c>
+      <c r="C32" s="44">
+        <v>20</v>
+      </c>
+      <c r="D32" s="4">
+        <v>6.23</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4.59</v>
+      </c>
+      <c r="F32" s="4">
+        <v>9.58</v>
+      </c>
+      <c r="G32" s="4">
+        <v>12</v>
+      </c>
+      <c r="H32" s="4">
+        <v>10.16</v>
+      </c>
+      <c r="I32" s="34">
+        <f t="shared" si="1"/>
+        <v>8.5120000000000005</v>
+      </c>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>15</v>
+      </c>
+      <c r="C33" s="44">
+        <v>50</v>
+      </c>
+      <c r="D33" s="8">
+        <v>6.15</v>
+      </c>
+      <c r="E33" s="8">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2.87</v>
+      </c>
+      <c r="G33" s="8">
+        <v>4.76</v>
+      </c>
+      <c r="H33" s="8">
+        <v>3.65</v>
+      </c>
+      <c r="I33" s="34">
+        <f t="shared" si="1"/>
+        <v>4.3079999999999998</v>
+      </c>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>16</v>
+      </c>
+      <c r="C34" s="44">
+        <v>50</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3.37</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="H34" s="4">
+        <v>5.32</v>
+      </c>
+      <c r="I34" s="34">
+        <f t="shared" si="1"/>
+        <v>3.6420000000000003</v>
+      </c>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>17</v>
+      </c>
+      <c r="C35" s="44">
+        <v>50</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E35" s="4">
+        <v>6.26</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2.27</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="H35" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="I35" s="34">
+        <f t="shared" si="1"/>
+        <v>4.5120000000000005</v>
+      </c>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>18</v>
+      </c>
+      <c r="C36" s="44">
+        <v>50</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3.74</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3.22</v>
+      </c>
+      <c r="G36" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="H36" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="I36" s="34">
+        <f t="shared" si="1"/>
+        <v>3.5819999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="9">
+        <v>26</v>
+      </c>
+      <c r="C37" s="44">
+        <v>50</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="36"/>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
+        <v>27</v>
+      </c>
+      <c r="C38" s="44">
+        <v>50</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="36"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
+        <v>28</v>
+      </c>
+      <c r="C39" s="44">
+        <v>50</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="36"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5">
+        <v>29</v>
+      </c>
+      <c r="C40" s="44">
+        <v>50</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="36"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="30">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="37">
+        <v>5</v>
+      </c>
+      <c r="C45" s="45">
+        <v>10</v>
+      </c>
+      <c r="D45" s="37">
+        <v>3.29</v>
+      </c>
+      <c r="E45" s="37">
+        <v>5.08</v>
+      </c>
+      <c r="F45" s="37">
+        <v>7.18</v>
+      </c>
+      <c r="G45" s="37">
+        <v>3.07</v>
+      </c>
+      <c r="H45" s="37">
+        <v>5.63</v>
+      </c>
+      <c r="I45" s="37">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="37">
+        <v>6</v>
+      </c>
+      <c r="C46" s="45">
+        <v>10</v>
+      </c>
+      <c r="D46" s="37">
+        <v>2.95</v>
+      </c>
+      <c r="E46" s="37">
+        <v>3.57</v>
+      </c>
+      <c r="F46" s="37">
+        <v>4.07</v>
+      </c>
+      <c r="G46" s="37">
+        <v>6.19</v>
+      </c>
+      <c r="H46" s="37">
+        <v>4.17</v>
+      </c>
+      <c r="I46" s="37">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="37">
+        <v>7</v>
+      </c>
+      <c r="C47" s="45">
+        <v>10</v>
+      </c>
+      <c r="D47" s="37">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E47" s="37">
+        <v>11.43</v>
+      </c>
+      <c r="F47" s="37">
+        <v>10.19</v>
+      </c>
+      <c r="G47" s="37">
+        <v>5.74</v>
+      </c>
+      <c r="H47" s="37">
+        <v>12.86</v>
+      </c>
+      <c r="I47" s="37">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="37">
+        <v>8</v>
+      </c>
+      <c r="C48" s="45">
+        <v>10</v>
+      </c>
+      <c r="D48" s="37">
+        <v>27.62</v>
+      </c>
+      <c r="E48" s="37">
+        <v>6.63</v>
+      </c>
+      <c r="F48" s="37">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G48" s="37">
+        <v>30</v>
+      </c>
+      <c r="H48" s="37">
+        <v>21.92</v>
+      </c>
+      <c r="I48" s="37">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="37">
+        <v>14</v>
+      </c>
+      <c r="C49" s="45">
+        <v>20</v>
+      </c>
+      <c r="D49" s="37">
+        <v>4.58</v>
+      </c>
+      <c r="E49" s="37">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F49" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G49" s="37">
+        <v>6.18</v>
+      </c>
+      <c r="H49" s="37">
+        <v>3.23</v>
+      </c>
+      <c r="I49" s="37">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="37">
+        <v>15</v>
+      </c>
+      <c r="C50" s="45">
+        <v>20</v>
+      </c>
+      <c r="D50" s="37">
+        <v>8.4</v>
+      </c>
+      <c r="E50" s="37">
+        <v>3.2</v>
+      </c>
+      <c r="F50" s="37">
+        <v>3.32</v>
+      </c>
+      <c r="G50" s="37">
+        <v>3.61</v>
+      </c>
+      <c r="H50" s="37">
+        <v>3.66</v>
+      </c>
+      <c r="I50" s="37">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="37">
+        <v>16</v>
+      </c>
+      <c r="C51" s="45">
+        <v>20</v>
+      </c>
+      <c r="D51" s="37">
+        <v>7.05</v>
+      </c>
+      <c r="E51" s="37">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F51" s="37">
+        <v>6.6</v>
+      </c>
+      <c r="G51" s="37">
+        <v>13.95</v>
+      </c>
+      <c r="H51" s="37">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="I51" s="37">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="37">
+        <v>17</v>
+      </c>
+      <c r="C52" s="45">
+        <v>20</v>
+      </c>
+      <c r="D52" s="37">
+        <v>1.02</v>
+      </c>
+      <c r="E52" s="37">
+        <v>4.17</v>
+      </c>
+      <c r="F52" s="37">
+        <v>5.13</v>
+      </c>
+      <c r="G52" s="37">
+        <v>7.42</v>
+      </c>
+      <c r="H52" s="37">
+        <v>5.35</v>
+      </c>
+      <c r="I52" s="37">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="37">
+        <v>15</v>
+      </c>
+      <c r="C53" s="45">
+        <v>50</v>
+      </c>
+      <c r="D53" s="37">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E53" s="37">
+        <v>5.92</v>
+      </c>
+      <c r="F53" s="37">
+        <v>5.58</v>
+      </c>
+      <c r="G53" s="37">
+        <v>2.73</v>
+      </c>
+      <c r="H53" s="37">
+        <v>4.82</v>
+      </c>
+      <c r="I53" s="37">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="37">
+        <v>16</v>
+      </c>
+      <c r="C54" s="45">
+        <v>50</v>
+      </c>
+      <c r="D54" s="37">
+        <v>5.08</v>
+      </c>
+      <c r="E54" s="37">
+        <v>2.04</v>
+      </c>
+      <c r="F54" s="37">
+        <v>2.84</v>
+      </c>
+      <c r="G54" s="37">
+        <v>2.25</v>
+      </c>
+      <c r="H54" s="37">
+        <v>2.74</v>
+      </c>
+      <c r="I54" s="37">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="37">
+        <v>17</v>
+      </c>
+      <c r="C55" s="45">
+        <v>50</v>
+      </c>
+      <c r="D55" s="37">
+        <v>4.46</v>
+      </c>
+      <c r="E55" s="37">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F55" s="37">
+        <v>4.7</v>
+      </c>
+      <c r="G55" s="37">
+        <v>7.91</v>
+      </c>
+      <c r="H55" s="37">
+        <v>4.21</v>
+      </c>
+      <c r="I55" s="37">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="37">
+        <v>18</v>
+      </c>
+      <c r="C56" s="45">
+        <v>50</v>
+      </c>
+      <c r="D56" s="37">
+        <v>3.67</v>
+      </c>
+      <c r="E56" s="37">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F56" s="37">
+        <v>6.93</v>
+      </c>
+      <c r="G56" s="37">
+        <v>2.67</v>
+      </c>
+      <c r="H56" s="37">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I56" s="37">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="37">
+        <v>26</v>
+      </c>
+      <c r="C57" s="45">
+        <v>50</v>
+      </c>
+      <c r="D57" s="37">
+        <v>5.68</v>
+      </c>
+      <c r="E57" s="37">
+        <v>6.96</v>
+      </c>
+      <c r="F57" s="37">
+        <v>6.31</v>
+      </c>
+      <c r="G57" s="37">
+        <v>4.92</v>
+      </c>
+      <c r="H57" s="37">
+        <v>11.15</v>
+      </c>
+      <c r="I57" s="37">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="37">
+        <v>27</v>
+      </c>
+      <c r="C58" s="45">
+        <v>50</v>
+      </c>
+      <c r="D58" s="37">
+        <v>19.71</v>
+      </c>
+      <c r="E58" s="37">
+        <v>14.22</v>
+      </c>
+      <c r="F58" s="37">
+        <v>2.96</v>
+      </c>
+      <c r="G58" s="37">
+        <v>6.72</v>
+      </c>
+      <c r="H58" s="37">
+        <v>2.7</v>
+      </c>
+      <c r="I58" s="37">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="37">
+        <v>28</v>
+      </c>
+      <c r="C59" s="45">
+        <v>50</v>
+      </c>
+      <c r="D59" s="37">
+        <v>7.01</v>
+      </c>
+      <c r="E59" s="37">
+        <v>11.13</v>
+      </c>
+      <c r="F59" s="37">
+        <v>14.34</v>
+      </c>
+      <c r="G59" s="37">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="H59" s="37">
+        <v>15.59</v>
+      </c>
+      <c r="I59" s="37">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="37">
+        <v>29</v>
+      </c>
+      <c r="C60" s="45">
+        <v>50</v>
+      </c>
+      <c r="D60" s="37">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="E60" s="37">
+        <v>25.71</v>
+      </c>
+      <c r="F60" s="37">
+        <v>6.56</v>
+      </c>
+      <c r="G60" s="37">
+        <v>6.54</v>
+      </c>
+      <c r="H60" s="37">
+        <v>4.66</v>
+      </c>
+      <c r="I60" s="37">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="30">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="25"/>
+    </row>
+    <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="42">
+        <v>5</v>
+      </c>
+      <c r="C65" s="47">
+        <v>10</v>
+      </c>
+      <c r="D65" s="42">
+        <v>2.76</v>
+      </c>
+      <c r="E65" s="42">
+        <v>2.88</v>
+      </c>
+      <c r="F65" s="42">
+        <v>2.98</v>
+      </c>
+      <c r="G65" s="42">
+        <v>2.92</v>
+      </c>
+      <c r="H65" s="42">
+        <v>2.67</v>
+      </c>
+      <c r="I65" s="42">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="42">
+        <v>6</v>
+      </c>
+      <c r="C66" s="47">
+        <v>10</v>
+      </c>
+      <c r="D66" s="42">
+        <v>2.19</v>
+      </c>
+      <c r="E66" s="42">
+        <v>6.95</v>
+      </c>
+      <c r="F66" s="42">
+        <v>2.17</v>
+      </c>
+      <c r="G66" s="42">
+        <v>2.14</v>
+      </c>
+      <c r="H66" s="42">
+        <v>1.66</v>
+      </c>
+      <c r="I66" s="42">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="42">
+        <v>7</v>
+      </c>
+      <c r="C67" s="47">
+        <v>10</v>
+      </c>
+      <c r="D67" s="42">
+        <v>2.25</v>
+      </c>
+      <c r="E67" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="F67" s="42">
+        <v>3.05</v>
+      </c>
+      <c r="G67" s="42">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H67" s="42">
+        <v>2.34</v>
+      </c>
+      <c r="I67" s="42">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="42">
+        <v>8</v>
+      </c>
+      <c r="C68" s="47">
+        <v>10</v>
+      </c>
+      <c r="D68" s="42">
+        <v>3.19</v>
+      </c>
+      <c r="E68" s="42">
+        <v>2.17</v>
+      </c>
+      <c r="F68" s="42">
+        <v>4.74</v>
+      </c>
+      <c r="G68" s="42">
+        <v>4.04</v>
+      </c>
+      <c r="H68" s="42">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I68" s="42">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="42">
+        <v>14</v>
+      </c>
+      <c r="C69" s="47">
+        <v>20</v>
+      </c>
+      <c r="D69" s="42">
+        <v>2.4</v>
+      </c>
+      <c r="E69" s="42">
+        <v>2.19</v>
+      </c>
+      <c r="F69" s="42">
+        <v>5.07</v>
+      </c>
+      <c r="G69" s="42">
+        <v>2.89</v>
+      </c>
+      <c r="H69" s="42">
+        <v>2.57</v>
+      </c>
+      <c r="I69" s="42">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="42">
+        <v>15</v>
+      </c>
+      <c r="C70" s="47">
+        <v>20</v>
+      </c>
+      <c r="D70" s="42">
+        <v>3.75</v>
+      </c>
+      <c r="E70" s="42">
+        <v>1.39</v>
+      </c>
+      <c r="F70" s="42">
+        <v>2.48</v>
+      </c>
+      <c r="G70" s="42">
+        <v>2.13</v>
+      </c>
+      <c r="H70" s="42">
+        <v>2.7</v>
+      </c>
+      <c r="I70" s="42">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="42">
+        <v>16</v>
+      </c>
+      <c r="C71" s="47">
+        <v>20</v>
+      </c>
+      <c r="D71" s="42">
+        <v>3.29</v>
+      </c>
+      <c r="E71" s="42">
+        <v>1.86</v>
+      </c>
+      <c r="F71" s="42">
+        <v>6.49</v>
+      </c>
+      <c r="G71" s="42">
+        <v>2.97</v>
+      </c>
+      <c r="H71" s="42">
+        <v>2.61</v>
+      </c>
+      <c r="I71" s="42">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="42">
+        <v>17</v>
+      </c>
+      <c r="C72" s="47">
+        <v>20</v>
+      </c>
+      <c r="D72" s="42">
+        <v>3.54</v>
+      </c>
+      <c r="E72" s="42">
+        <v>6.03</v>
+      </c>
+      <c r="F72" s="42">
+        <v>4.08</v>
+      </c>
+      <c r="G72" s="42">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="H72" s="42">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I72" s="42">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="42">
+        <v>15</v>
+      </c>
+      <c r="C73" s="47">
+        <v>50</v>
+      </c>
+      <c r="D73" s="42">
+        <v>2.98</v>
+      </c>
+      <c r="E73" s="42">
+        <v>10.19</v>
+      </c>
+      <c r="F73" s="42">
+        <v>11.12</v>
+      </c>
+      <c r="G73" s="42">
+        <v>1.62</v>
+      </c>
+      <c r="H73" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I73" s="42">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="42">
+        <v>16</v>
+      </c>
+      <c r="C74" s="47">
+        <v>50</v>
+      </c>
+      <c r="D74" s="42">
+        <v>12.75</v>
+      </c>
+      <c r="E74" s="42">
+        <v>6.16</v>
+      </c>
+      <c r="F74" s="42">
+        <v>5.62</v>
+      </c>
+      <c r="G74" s="42">
+        <v>30</v>
+      </c>
+      <c r="H74" s="42">
+        <v>13.32</v>
+      </c>
+      <c r="I74" s="42">
+        <v>13.57</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="42">
+        <v>17</v>
+      </c>
+      <c r="C75" s="47">
+        <v>50</v>
+      </c>
+      <c r="D75" s="42">
+        <v>20.51</v>
+      </c>
+      <c r="E75" s="42">
+        <v>15.47</v>
+      </c>
+      <c r="F75" s="42">
+        <v>16.11</v>
+      </c>
+      <c r="G75" s="42">
+        <v>6.14</v>
+      </c>
+      <c r="H75" s="42">
+        <v>7.92</v>
+      </c>
+      <c r="I75" s="42">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="42">
+        <v>18</v>
+      </c>
+      <c r="C76" s="47">
+        <v>50</v>
+      </c>
+      <c r="D76" s="42">
+        <v>27.99</v>
+      </c>
+      <c r="E76" s="42">
+        <v>10.96</v>
+      </c>
+      <c r="F76" s="42">
+        <v>30</v>
+      </c>
+      <c r="G76" s="42">
+        <v>8.18</v>
+      </c>
+      <c r="H76" s="42">
+        <v>20.68</v>
+      </c>
+      <c r="I76" s="42">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="42">
+        <v>26</v>
+      </c>
+      <c r="C77" s="47">
+        <v>50</v>
+      </c>
+      <c r="D77" s="42">
+        <v>30</v>
+      </c>
+      <c r="E77" s="42">
+        <v>30</v>
+      </c>
+      <c r="F77" s="42">
+        <v>30</v>
+      </c>
+      <c r="G77" s="42">
+        <v>30</v>
+      </c>
+      <c r="H77" s="42">
+        <v>30</v>
+      </c>
+      <c r="I77" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="42">
+        <v>27</v>
+      </c>
+      <c r="C78" s="47">
+        <v>50</v>
+      </c>
+      <c r="D78" s="42">
+        <v>30</v>
+      </c>
+      <c r="E78" s="42">
+        <v>30</v>
+      </c>
+      <c r="F78" s="42">
+        <v>30</v>
+      </c>
+      <c r="G78" s="42">
+        <v>30</v>
+      </c>
+      <c r="H78" s="42">
+        <v>30</v>
+      </c>
+      <c r="I78" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="42">
+        <v>28</v>
+      </c>
+      <c r="C79" s="47">
+        <v>50</v>
+      </c>
+      <c r="D79" s="42">
+        <v>30</v>
+      </c>
+      <c r="E79" s="42">
+        <v>30</v>
+      </c>
+      <c r="F79" s="42">
+        <v>30</v>
+      </c>
+      <c r="G79" s="42">
+        <v>30</v>
+      </c>
+      <c r="H79" s="42">
+        <v>30</v>
+      </c>
+      <c r="I79" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="42">
+        <v>29</v>
+      </c>
+      <c r="C80" s="47">
+        <v>50</v>
+      </c>
+      <c r="D80" s="42">
+        <v>30</v>
+      </c>
+      <c r="E80" s="42">
+        <v>30</v>
+      </c>
+      <c r="F80" s="42">
+        <v>30</v>
+      </c>
+      <c r="G80" s="42">
+        <v>30</v>
+      </c>
+      <c r="H80" s="42">
+        <v>30</v>
+      </c>
+      <c r="I80" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D64:H64"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I5" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4719AE9B-022E-49D0-BEA3-A72D5BD462EB}">
+  <dimension ref="L2:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="12:13" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="12:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="L3" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="12:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L4" s="31" t="str">
+        <f>Data!B2 &amp; " " &amp; Data!C2 &amp; " " &amp; Data!D2</f>
+        <v>Diffuser 1 Autofocus</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="12:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L5" s="31" t="str">
+        <f>Data!B22 &amp; " " &amp; Data!C22 &amp; " " &amp; Data!D22</f>
+        <v>Diffuser 2 Autofocus</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="12:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L6" s="31" t="str">
+        <f>Data!B42 &amp; " " &amp; Data!C42 &amp; " " &amp; Data!D42</f>
+        <v>Diffuser 3 Autofocus</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="12:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L7" s="31" t="str">
+        <f>Data!B62 &amp; " " &amp; Data!C62 &amp; " " &amp; Data!D62</f>
+        <v>Diffuser 3 Fixed</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>